--- a/DIPLOMI APRILE 2018.xlsx
+++ b/DIPLOMI APRILE 2018.xlsx
@@ -5378,12 +5378,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5398,7 +5404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5433,6 +5439,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -5729,8 +5742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A889" workbookViewId="0">
-      <selection activeCell="A1128" sqref="A1128:XFD1128"/>
+    <sheetView tabSelected="1" topLeftCell="A1235" workbookViewId="0">
+      <selection activeCell="A1269" sqref="A1269:I1269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75"/>
@@ -34957,7 +34970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1265" spans="1:8">
+    <row r="1265" spans="1:9">
       <c r="A1265" s="2">
         <v>19</v>
       </c>
@@ -34983,7 +34996,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="1266" spans="1:8">
+    <row r="1266" spans="1:9">
       <c r="A1266" s="2">
         <v>19</v>
       </c>
@@ -35009,7 +35022,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="1267" spans="1:8">
+    <row r="1267" spans="1:9">
       <c r="A1267" s="2">
         <v>19</v>
       </c>
@@ -35035,7 +35048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1268" spans="1:8">
+    <row r="1268" spans="1:9">
       <c r="A1268" s="2">
         <v>19</v>
       </c>
@@ -35061,33 +35074,34 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="1269" spans="1:8">
-      <c r="A1269" s="2">
+    <row r="1269" spans="1:9">
+      <c r="A1269" s="12">
         <v>19</v>
       </c>
-      <c r="B1269" s="3" t="s">
+      <c r="B1269" s="13" t="s">
         <v>1777</v>
       </c>
-      <c r="C1269" s="4" t="s">
+      <c r="C1269" s="13" t="s">
         <v>1778</v>
       </c>
-      <c r="D1269" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1269" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1269" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1269" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1269" s="9" t="s">
+      <c r="D1269" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1269" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1269" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1269" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1269" s="13" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="1270" spans="1:8">
+      <c r="I1269" s="14"/>
+    </row>
+    <row r="1270" spans="1:9">
       <c r="A1270" s="2">
         <v>19</v>
       </c>
